--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3666.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3666.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.456453225047297</v>
+        <v>0.8836637139320374</v>
       </c>
       <c r="B1">
-        <v>2.566080009193274</v>
+        <v>1.036612510681152</v>
       </c>
       <c r="C1">
-        <v>8.170907227751934</v>
+        <v>0.8401211500167847</v>
       </c>
       <c r="D1">
-        <v>2.139886885106488</v>
+        <v>0.7816460132598877</v>
       </c>
       <c r="E1">
-        <v>0.9085902114494439</v>
+        <v>0.8130704760551453</v>
       </c>
     </row>
   </sheetData>
